--- a/baza.xlsx
+++ b/baza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Desktop\BirthdayReminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F487F9-C9EF-462B-9A64-4421326114BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3557BE-E30F-49F7-9C43-614F8106DB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0DC00BD5-0B69-4C61-B455-3ED33B3AFD66}"/>
+    <workbookView xWindow="4950" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{0DC00BD5-0B69-4C61-B455-3ED33B3AFD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,30 +401,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -449,22 +429,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,24 +441,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9805B-1CC4-4839-80E6-5852A784C2AC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H50" sqref="H49:H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,10 +791,10 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="10">
         <v>44930</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="10">
         <v>44930</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -843,13 +803,13 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>44203</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <v>44203</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -859,13 +819,13 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>44210</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="11">
         <v>44210</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -874,13 +834,13 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>44222</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>44222</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -890,13 +850,13 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>44227</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>44227</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -905,13 +865,13 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>44231</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>44231</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -920,13 +880,13 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>44232</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>44232</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -936,13 +896,13 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>44234</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -952,13 +912,13 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>44254</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>44254</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -966,13 +926,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>44274</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>44274</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -980,13 +940,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>44287</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>44287</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -995,13 +955,13 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <v>44288</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>44288</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1011,13 +971,13 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>44291</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>44291</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1025,13 +985,13 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <v>44294</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>44294</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1039,13 +999,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <v>44301</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>44301</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1053,13 +1013,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>44317</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>44317</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1067,13 +1027,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>44334</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>44334</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1081,13 +1041,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>44351</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="13">
         <v>44351</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1095,13 +1055,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>44351</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="13">
         <v>44351</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1109,13 +1069,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="13">
         <v>44379</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>44379</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1123,13 +1083,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <v>44399</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="13">
         <v>44399</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1137,13 +1097,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="13">
         <v>44402</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="13">
         <v>44402</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1151,13 +1111,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <v>44418</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="13">
         <v>44418</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1165,13 +1125,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
         <v>44431</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="13">
         <v>44431</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1179,13 +1139,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="13">
         <v>44434</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="13">
         <v>44434</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1193,13 +1153,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="13">
         <v>44439</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="13">
         <v>44439</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1207,13 +1167,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="14">
         <v>44467</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="14">
         <v>44467</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1221,13 +1181,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="14">
         <v>44474</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="14">
         <v>44474</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1235,13 +1195,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="14">
         <v>44485</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="14">
         <v>44485</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1249,13 +1209,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="14">
         <v>44486</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="14">
         <v>44486</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1263,13 +1223,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="14">
         <v>44495</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="14">
         <v>44495</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1277,13 +1237,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="14">
         <v>44506</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="14">
         <v>44506</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1291,13 +1251,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="14">
         <v>44512</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="14">
         <v>44512</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1305,13 +1265,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="14">
         <v>44521</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="14">
         <v>44521</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1319,13 +1279,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>44559</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="15">
         <v>44559</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1339,7 +1299,7 @@
       <c r="B36" s="6">
         <v>44754</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>44754</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1347,13 +1307,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="4">
         <v>44782</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="4">
         <v>44782</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1361,13 +1321,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="4">
         <v>44813</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="4">
         <v>44813</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1375,13 +1335,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="4">
         <v>44852</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="4">
         <v>44852</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1389,13 +1349,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="4">
         <v>44886</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>44886</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1403,13 +1363,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4">
         <v>44892</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="4">
         <v>44892</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1417,13 +1377,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="4">
         <v>44644</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>44644</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1431,13 +1391,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="4">
         <v>44655</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="4">
         <v>44655</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1445,13 +1405,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="4">
         <v>44679</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>44679</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1459,13 +1419,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="4">
         <v>44683</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="4">
         <v>44683</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1473,38 +1433,56 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>44707</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="9">
         <v>44707</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="B47" s="9">
+        <v>44708</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44708</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="B48" s="9">
+        <v>44709</v>
+      </c>
+      <c r="C48" s="9">
+        <v>44709</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="B49" s="9">
+        <v>44710</v>
+      </c>
+      <c r="C49" s="9">
+        <v>44710</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>93</v>
@@ -1512,6 +1490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/baza.xlsx
+++ b/baza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Desktop\BirthdayReminder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Desktop\My\BirthdayReminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3557BE-E30F-49F7-9C43-614F8106DB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989336FF-84E5-4B10-9EE7-8D8914B35F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{0DC00BD5-0B69-4C61-B455-3ED33B3AFD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0DC00BD5-0B69-4C61-B455-3ED33B3AFD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,151 +171,151 @@
     <t>Ингларанда (Игорь)</t>
   </si>
   <si>
+    <t>7/1</t>
+  </si>
+  <si>
+    <t>26/1</t>
+  </si>
+  <si>
+    <t>14/1</t>
+  </si>
+  <si>
+    <t>31/1</t>
+  </si>
+  <si>
+    <t>27/2</t>
+  </si>
+  <si>
+    <t>19/3</t>
+  </si>
+  <si>
+    <t>15/4</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <t>22/7</t>
+  </si>
+  <si>
+    <t>25/7</t>
+  </si>
+  <si>
+    <t>23/8</t>
+  </si>
+  <si>
+    <t>26/8</t>
+  </si>
+  <si>
+    <t>31/8</t>
+  </si>
+  <si>
+    <t>28/9</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <t>26/10</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>29/12</t>
+  </si>
+  <si>
+    <t>Анька шлыкова подруга</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>7/2</t>
+  </si>
+  <si>
+    <t>24/3</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>5/4</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>10/8</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <t>12/7</t>
+  </si>
+  <si>
+    <t>9/8</t>
+  </si>
+  <si>
+    <t>9/9</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <t>27/11</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>28/4</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>26/5</t>
+  </si>
+  <si>
+    <t>QQQQQ</t>
+  </si>
+  <si>
+    <t>24/6</t>
+  </si>
+  <si>
+    <t>23/6</t>
+  </si>
+  <si>
+    <t>25/6</t>
+  </si>
+  <si>
     <t>4/1</t>
-  </si>
-  <si>
-    <t>7/1</t>
-  </si>
-  <si>
-    <t>26/1</t>
-  </si>
-  <si>
-    <t>14/1</t>
-  </si>
-  <si>
-    <t>31/1</t>
-  </si>
-  <si>
-    <t>27/2</t>
-  </si>
-  <si>
-    <t>19/3</t>
-  </si>
-  <si>
-    <t>15/4</t>
-  </si>
-  <si>
-    <t>18/5</t>
-  </si>
-  <si>
-    <t>22/7</t>
-  </si>
-  <si>
-    <t>25/7</t>
-  </si>
-  <si>
-    <t>23/8</t>
-  </si>
-  <si>
-    <t>26/8</t>
-  </si>
-  <si>
-    <t>31/8</t>
-  </si>
-  <si>
-    <t>28/9</t>
-  </si>
-  <si>
-    <t>16/10</t>
-  </si>
-  <si>
-    <t>17/10</t>
-  </si>
-  <si>
-    <t>26/10</t>
-  </si>
-  <si>
-    <t>21/11</t>
-  </si>
-  <si>
-    <t>29/12</t>
-  </si>
-  <si>
-    <t>Анька шлыкова подруга</t>
-  </si>
-  <si>
-    <t>4/2</t>
-  </si>
-  <si>
-    <t>5/2</t>
-  </si>
-  <si>
-    <t>7/2</t>
-  </si>
-  <si>
-    <t>24/3</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>2/4</t>
-  </si>
-  <si>
-    <t>5/4</t>
-  </si>
-  <si>
-    <t>8/4</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>4/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>10/8</t>
-  </si>
-  <si>
-    <t>5/10</t>
-  </si>
-  <si>
-    <t>6/11</t>
-  </si>
-  <si>
-    <t>12/11</t>
-  </si>
-  <si>
-    <t>12/7</t>
-  </si>
-  <si>
-    <t>9/8</t>
-  </si>
-  <si>
-    <t>9/9</t>
-  </si>
-  <si>
-    <t>18/10</t>
-  </si>
-  <si>
-    <t>27/11</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>28/4</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>26/5</t>
-  </si>
-  <si>
-    <t>QQQQQ</t>
-  </si>
-  <si>
-    <t>24/6</t>
-  </si>
-  <si>
-    <t>23/6</t>
-  </si>
-  <si>
-    <t>25/6</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>44930</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -813,7 +813,7 @@
         <v>44203</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2" s="1"/>
@@ -829,7 +829,7 @@
         <v>44210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -844,7 +844,7 @@
         <v>44222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1"/>
       <c r="O4" s="1"/>
@@ -860,13 +860,13 @@
         <v>44227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="11">
         <v>44231</v>
@@ -875,7 +875,7 @@
         <v>44231</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -890,7 +890,7 @@
         <v>44232</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1"/>
       <c r="O7" s="1"/>
@@ -906,7 +906,7 @@
         <v>44234</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1"/>
       <c r="O8" s="1"/>
@@ -922,7 +922,7 @@
         <v>44254</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>44274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>44287</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -965,7 +965,7 @@
         <v>44288</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1"/>
       <c r="Q12" s="1"/>
@@ -981,7 +981,7 @@
         <v>44291</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>44294</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>44301</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>44317</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>44334</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>44351</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>44351</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>44379</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>44399</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>44402</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>44418</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>44431</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>44434</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>44439</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>44467</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>44474</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>44485</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>44486</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>44495</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>44506</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>44512</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>44521</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>44559</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>44754</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>44782</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>44813</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>44852</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>44886</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>44892</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>44644</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
         <v>44655</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>44679</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>44683</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,12 +1443,12 @@
         <v>44707</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="9">
         <v>44708</v>
@@ -1457,12 +1457,12 @@
         <v>44708</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="9">
         <v>44709</v>
@@ -1471,12 +1471,12 @@
         <v>44709</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="9">
         <v>44710</v>
@@ -1485,7 +1485,7 @@
         <v>44710</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
